--- a/medicine/Premiers secours et secourisme/Jean_de_Muralt_(1877-1947)/Jean_de_Muralt_(1877-1947).xlsx
+++ b/medicine/Premiers secours et secourisme/Jean_de_Muralt_(1877-1947)/Jean_de_Muralt_(1877-1947).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean de Muralt (18 juillet 1877, Zurich - 10 novembre 1947, Zurich) est un militaire suisse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir suivi son droit à Berlin, Munich et Zurich, et l'obtention de son doctorat en 1902, il devient procureur de district en 1903. 
 Entré dans la carrière militaire en 1908, il est officier instructeur d'artillerie jusqu'en 1932 et officier d'état-major à partir de 1913. Promu colonel en 1926, puis divisionnaire en 1932, il commande la 5e division 5 de 1932 à 1937.
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Müller-Grieshaber, « Muralt, Johannes von » dans le Dictionnaire historique de la Suisse en ligne, version du 18 juin 2008.
 Notices d'autorité : VIAF ISNI LCCN GND Pays-Bas WorldCat 
